--- a/BIS232_SCRIPT/input_data/datapool/BISForm.xlsx
+++ b/BIS232_SCRIPT/input_data/datapool/BISForm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6818FEF-D875-4D70-AD28-B43993601D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C46750-D6FC-4FAC-9C1A-38AEF36DC10E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1056" windowWidth="19008" windowHeight="7920" tabRatio="582" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1056" windowWidth="19008" windowHeight="7920" tabRatio="582" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="14" r:id="rId1"/>
@@ -39,10 +39,15 @@
     <definedName name="Yes_No">#REF!</definedName>
     <definedName name="YesOrNo">dropdowns!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3152,7 +3157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6561DE94-E3AB-4C26-84CE-440BF0BDEA94}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -3223,11 +3228,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E063A7-C321-498C-AB7A-8B921DAD62CB}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3444,7 +3449,7 @@
         <v>448</v>
       </c>
       <c r="W3" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -3497,7 +3502,7 @@
         <v>448</v>
       </c>
       <c r="W4" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -3566,7 +3571,7 @@
         <v>464</v>
       </c>
       <c r="W5" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -4000,7 +4005,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU3" sqref="AU3"/>
+      <selection pane="bottomRight" activeCell="AU3" sqref="AU3:AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4315,7 +4320,7 @@
         <v>95</v>
       </c>
       <c r="AU2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.3">
@@ -4597,7 +4602,7 @@
         <v>516</v>
       </c>
       <c r="AU4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.3">
@@ -4740,7 +4745,7 @@
         <v>483</v>
       </c>
       <c r="AU5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4904,7 +4909,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4960,7 +4965,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4989,7 +4994,7 @@
         <v>569</v>
       </c>
       <c r="I3" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -5012,7 +5017,7 @@
         <v>544</v>
       </c>
       <c r="I4" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -5041,7 +5046,7 @@
         <v>541</v>
       </c>
       <c r="I5" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
